--- a/Data/data_MIPAR_cropped_FFT.xlsx
+++ b/Data/data_MIPAR_cropped_FFT.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,31 +410,31 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>5624</v>
+        <v>5657</v>
       </c>
       <c r="C2" t="n">
-        <v>705.4945094585419</v>
+        <v>649.7127648591995</v>
       </c>
       <c r="D2" t="n">
-        <v>30.87580680847168</v>
+        <v>30.33917617797852</v>
       </c>
       <c r="E2" t="n">
-        <v>309.4342651367188</v>
+        <v>313.7303771972656</v>
       </c>
       <c r="F2" t="n">
-        <v>170.1550359725952</v>
+        <v>172.0347766876221</v>
       </c>
       <c r="G2" t="n">
-        <v>45313</v>
+        <v>44261</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7430309589400499</v>
+        <v>0.7257805325987144</v>
       </c>
       <c r="I2" t="n">
-        <v>15671</v>
+        <v>16723</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2569690410599502</v>
+        <v>0.2742194674012856</v>
       </c>
     </row>
     <row r="3">
@@ -442,19 +442,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>11947</v>
+        <v>11608</v>
       </c>
       <c r="C3" t="n">
-        <v>869.8376553058624</v>
+        <v>779.7716399431229</v>
       </c>
       <c r="D3" t="n">
-        <v>51.59157943725586</v>
+        <v>43.06280899047852</v>
       </c>
       <c r="E3" t="n">
-        <v>391.6643676757812</v>
+        <v>412.1843566894531</v>
       </c>
       <c r="F3" t="n">
-        <v>221.6279735565186</v>
+        <v>227.6235828399658</v>
       </c>
     </row>
     <row r="4">
@@ -462,19 +462,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4826</v>
+        <v>4082</v>
       </c>
       <c r="C4" t="n">
-        <v>707.5533845424652</v>
+        <v>643.8549002408981</v>
       </c>
       <c r="D4" t="n">
-        <v>27.48547744750977</v>
+        <v>19.38092803955078</v>
       </c>
       <c r="E4" t="n">
-        <v>266.521728515625</v>
+        <v>320.3265991210938</v>
       </c>
       <c r="F4" t="n">
-        <v>147.0036029815674</v>
+        <v>169.8537635803223</v>
       </c>
     </row>
     <row r="5">
@@ -482,19 +482,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>7863</v>
+        <v>7305</v>
       </c>
       <c r="C5" t="n">
-        <v>882.5483322143555</v>
+        <v>931.8204103708267</v>
       </c>
       <c r="D5" t="n">
-        <v>34.00680923461914</v>
+        <v>34.15168380737305</v>
       </c>
       <c r="E5" t="n">
-        <v>364.9650268554688</v>
+        <v>327.490234375</v>
       </c>
       <c r="F5" t="n">
-        <v>199.4859180450439</v>
+        <v>180.8209590911865</v>
       </c>
     </row>
     <row r="6">
@@ -502,19 +502,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>2451</v>
+        <v>2146</v>
       </c>
       <c r="C6" t="n">
-        <v>369.1370830535889</v>
+        <v>350.3086559772491</v>
       </c>
       <c r="D6" t="n">
-        <v>27.22241020202637</v>
+        <v>23.39880561828613</v>
       </c>
       <c r="E6" t="n">
-        <v>169.3632202148438</v>
+        <v>172.4441070556641</v>
       </c>
       <c r="F6" t="n">
-        <v>98.29281520843506</v>
+        <v>97.9214563369751</v>
       </c>
     </row>
     <row r="7">
@@ -522,19 +522,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1106</v>
+        <v>1256</v>
       </c>
       <c r="C7" t="n">
-        <v>198.8528122901917</v>
+        <v>286.9777027368546</v>
       </c>
       <c r="D7" t="n">
-        <v>18.61865615844727</v>
+        <v>15.47880172729492</v>
       </c>
       <c r="E7" t="n">
-        <v>84.17977905273438</v>
+        <v>119.4693908691406</v>
       </c>
       <c r="F7" t="n">
-        <v>51.39921760559082</v>
+        <v>67.47409629821777</v>
       </c>
     </row>
     <row r="8">
@@ -542,19 +542,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>5008</v>
+        <v>5234</v>
       </c>
       <c r="C8" t="n">
-        <v>694.6660823822021</v>
+        <v>715.5950146913528</v>
       </c>
       <c r="D8" t="n">
-        <v>30.21492958068848</v>
+        <v>31.73897933959961</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7526245117188</v>
+        <v>258.8099670410156</v>
       </c>
       <c r="F8" t="n">
-        <v>146.4837770462036</v>
+        <v>145.2744731903076</v>
       </c>
     </row>
     <row r="9">
@@ -562,19 +562,19 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>1091</v>
+        <v>897</v>
       </c>
       <c r="C9" t="n">
-        <v>205.1959581375122</v>
+        <v>196.2670258283615</v>
       </c>
       <c r="D9" t="n">
-        <v>18.22220039367676</v>
+        <v>15.0076789855957</v>
       </c>
       <c r="E9" t="n">
-        <v>79.31015014648438</v>
+        <v>76.00202941894531</v>
       </c>
       <c r="F9" t="n">
-        <v>48.76617527008057</v>
+        <v>45.50485420227051</v>
       </c>
     </row>
     <row r="10">
@@ -582,19 +582,19 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>1114</v>
+        <v>1132</v>
       </c>
       <c r="C10" t="n">
-        <v>270.5096664428711</v>
+        <v>255.5391039848328</v>
       </c>
       <c r="D10" t="n">
-        <v>11.82197952270508</v>
+        <v>12.06297874450684</v>
       </c>
       <c r="E10" t="n">
-        <v>133.877197265625</v>
+        <v>130.3826751708984</v>
       </c>
       <c r="F10" t="n">
-        <v>72.84958839416504</v>
+        <v>71.22282695770264</v>
       </c>
     </row>
     <row r="11">
@@ -602,19 +602,19 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="C11" t="n">
-        <v>56.62741661071777</v>
+        <v>71.35533845424652</v>
       </c>
       <c r="D11" t="n">
-        <v>12.37142467498779</v>
+        <v>11.80968952178955</v>
       </c>
       <c r="E11" t="n">
-        <v>18.55123710632324</v>
+        <v>24.55212211608887</v>
       </c>
       <c r="F11" t="n">
-        <v>15.46133089065552</v>
+        <v>18.18090581893921</v>
       </c>
     </row>
     <row r="12">
@@ -622,39 +622,59 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="C12" t="n">
-        <v>53.55634891986847</v>
+        <v>57.4558436870575</v>
       </c>
       <c r="D12" t="n">
-        <v>8.824200630187988</v>
+        <v>12.40105056762695</v>
       </c>
       <c r="E12" t="n">
-        <v>20.43644142150879</v>
+        <v>19.31667709350586</v>
       </c>
       <c r="F12" t="n">
-        <v>14.63032102584839</v>
+        <v>15.85886383056641</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>256</v>
+      </c>
+      <c r="C13" t="n">
+        <v>70.28427076339722</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11.29644775390625</v>
+      </c>
+      <c r="E13" t="n">
+        <v>27.91457748413086</v>
+      </c>
+      <c r="F13" t="n">
+        <v>19.60551261901855</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>22</v>
       </c>
-      <c r="B13" t="n">
-        <v>172</v>
-      </c>
-      <c r="C13" t="n">
-        <v>61.21320307254791</v>
-      </c>
-      <c r="D13" t="n">
-        <v>13.94781303405762</v>
-      </c>
-      <c r="E13" t="n">
-        <v>18.31678581237793</v>
-      </c>
-      <c r="F13" t="n">
-        <v>16.13229942321777</v>
+      <c r="B14" t="n">
+        <v>180</v>
+      </c>
+      <c r="C14" t="n">
+        <v>73.69848430156708</v>
+      </c>
+      <c r="D14" t="n">
+        <v>15.02512073516846</v>
+      </c>
+      <c r="E14" t="n">
+        <v>18.54927062988281</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16.78719568252563</v>
       </c>
     </row>
   </sheetData>
